--- a/file/Importpemohon.xlsx
+++ b/file/Importpemohon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sidaf\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C30F6-57C0-4B7A-BFEB-6B5C9B125B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8451F3-6879-498A-8757-8223D8AE19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>NAMA</t>
-  </si>
-  <si>
     <t>NOMOR TELEPON</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>Penanggung Jawab IRT</t>
+  </si>
+  <si>
+    <t>NAMA PEMILIK</t>
+  </si>
+  <si>
+    <t>NAMA PENANGGUNGJAWAB</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
@@ -418,9 +422,9 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -429,62 +433,69 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
